--- a/Code/Results/Cases/Case_1_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_156/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171571836</v>
+        <v>1.219803940679071</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1766640848811818</v>
+        <v>0.04416460176246062</v>
       </c>
       <c r="E2">
-        <v>1.765433349908136</v>
+        <v>0.4396191691992186</v>
       </c>
       <c r="F2">
-        <v>5.08508805273766</v>
+        <v>1.528290297222981</v>
       </c>
       <c r="G2">
-        <v>6.047613846318768</v>
+        <v>1.673767081463382</v>
       </c>
       <c r="H2">
-        <v>2.855195282128705</v>
+        <v>1.010542361786406</v>
       </c>
       <c r="I2">
-        <v>11.29355081581588</v>
+        <v>3.961193417866525</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742122068</v>
+        <v>1.069997499266549</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1481600608387623</v>
+        <v>0.03830832642090343</v>
       </c>
       <c r="E3">
-        <v>1.477819511624602</v>
+        <v>0.3823479279035951</v>
       </c>
       <c r="F3">
-        <v>4.299387531526605</v>
+        <v>1.363286054659909</v>
       </c>
       <c r="G3">
-        <v>5.107744382705221</v>
+        <v>1.472460773835678</v>
       </c>
       <c r="H3">
-        <v>2.417775887462483</v>
+        <v>0.9231199012414208</v>
       </c>
       <c r="I3">
-        <v>9.844336852165554</v>
+        <v>3.481483530427994</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712641930439929</v>
+        <v>0.9775436500530645</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1316666761483134</v>
+        <v>0.03472637085036467</v>
       </c>
       <c r="E4">
-        <v>1.311801910483425</v>
+        <v>0.3474053453013823</v>
       </c>
       <c r="F4">
-        <v>3.839723242350004</v>
+        <v>1.262945067803372</v>
       </c>
       <c r="G4">
-        <v>4.557876019152104</v>
+        <v>1.349747030403535</v>
       </c>
       <c r="H4">
-        <v>2.162425671209206</v>
+        <v>0.8702008080870769</v>
       </c>
       <c r="I4">
-        <v>8.956724654652447</v>
+        <v>3.186307868167489</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149140556</v>
+        <v>0.9397517899388959</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1251451355864077</v>
+        <v>0.03326964694228707</v>
       </c>
       <c r="E5">
-        <v>1.246240096146465</v>
+        <v>0.333216280922386</v>
       </c>
       <c r="F5">
-        <v>3.656993775845223</v>
+        <v>1.222288067622259</v>
       </c>
       <c r="G5">
-        <v>4.339267670826246</v>
+        <v>1.299949458491369</v>
       </c>
       <c r="H5">
-        <v>2.061043229932068</v>
+        <v>0.8488200623750686</v>
       </c>
       <c r="I5">
-        <v>8.595401611000227</v>
+        <v>3.06587693359225</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582587512584553</v>
+        <v>0.9334695415141141</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1240729425005043</v>
+        <v>0.03302792226286044</v>
       </c>
       <c r="E6">
-        <v>1.235465716026766</v>
+        <v>0.3308630769826664</v>
       </c>
       <c r="F6">
-        <v>3.626899869878883</v>
+        <v>1.215550724464379</v>
       </c>
       <c r="G6">
-        <v>4.303263164096279</v>
+        <v>1.291692836908965</v>
       </c>
       <c r="H6">
-        <v>2.044353751884842</v>
+        <v>0.8452807431618226</v>
       </c>
       <c r="I6">
-        <v>8.535422914870139</v>
+        <v>3.04587117873993</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.71113728649982</v>
+        <v>0.9770344427033137</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1315779786119862</v>
+        <v>0.03470671369345268</v>
       </c>
       <c r="E7">
-        <v>1.31090990958262</v>
+        <v>0.3472137901143384</v>
       </c>
       <c r="F7">
-        <v>3.837241647402038</v>
+        <v>1.262395826126067</v>
       </c>
       <c r="G7">
-        <v>4.554907267146746</v>
+        <v>1.349074614279345</v>
       </c>
       <c r="H7">
-        <v>2.161048325781394</v>
+        <v>0.8699117225502562</v>
       </c>
       <c r="I7">
-        <v>8.951850372969318</v>
+        <v>3.184684259837752</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047042265</v>
+        <v>1.168250105382356</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1665900476820923</v>
+        <v>0.04214216942487781</v>
       </c>
       <c r="E8">
-        <v>1.663681052406318</v>
+        <v>0.4198225367166089</v>
       </c>
       <c r="F8">
-        <v>4.808690486004821</v>
+        <v>1.47118785694326</v>
       </c>
       <c r="G8">
-        <v>5.716971371056786</v>
+        <v>1.604163365212003</v>
       </c>
       <c r="H8">
-        <v>2.7011891453933</v>
+        <v>0.98023762357343</v>
       </c>
       <c r="I8">
-        <v>10.79329427806584</v>
+        <v>3.795928923952232</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025559</v>
+        <v>1.539389405565316</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2466043174925545</v>
+        <v>0.05685744970638495</v>
       </c>
       <c r="E9">
-        <v>2.475205393489546</v>
+        <v>0.5642327170640442</v>
       </c>
       <c r="F9">
-        <v>6.963220771646007</v>
+        <v>1.888902018709359</v>
       </c>
       <c r="G9">
-        <v>8.295420152117913</v>
+        <v>2.112127782647462</v>
       </c>
       <c r="H9">
-        <v>3.90495917267657</v>
+        <v>1.202918706961327</v>
       </c>
       <c r="I9">
-        <v>14.43077138200425</v>
+        <v>4.989014804984947</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.239709044502774</v>
+        <v>1.809644099351601</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3195780394053429</v>
+        <v>0.06778656051733378</v>
       </c>
       <c r="E10">
-        <v>3.223342820008256</v>
+        <v>0.6719446234360191</v>
       </c>
       <c r="F10">
-        <v>8.842406559566115</v>
+        <v>2.201659492699889</v>
       </c>
       <c r="G10">
-        <v>10.54794552903911</v>
+        <v>2.491042104895939</v>
       </c>
       <c r="H10">
-        <v>4.960488211714448</v>
+        <v>1.370841485233257</v>
       </c>
       <c r="I10">
-        <v>17.1335551850915</v>
+        <v>5.861568061238756</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.623796921615053</v>
+        <v>1.932050532541837</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3589593210580091</v>
+        <v>0.07279217337988086</v>
       </c>
       <c r="E11">
-        <v>3.631288591487376</v>
+        <v>0.7213816670721798</v>
       </c>
       <c r="F11">
-        <v>9.820535537072118</v>
+        <v>2.345399064368451</v>
       </c>
       <c r="G11">
-        <v>11.7224099143383</v>
+        <v>2.664885521213535</v>
       </c>
       <c r="H11">
-        <v>5.511853027748941</v>
+        <v>1.44827547428082</v>
       </c>
       <c r="I11">
-        <v>18.37337786845455</v>
+        <v>6.25753114434076</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.769885678609342</v>
+        <v>1.978324344475823</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3752633481810648</v>
+        <v>0.07469321267035411</v>
       </c>
       <c r="E12">
-        <v>3.801232012380837</v>
+        <v>0.7401723167001393</v>
       </c>
       <c r="F12">
-        <v>10.2178483775096</v>
+        <v>2.400055170825851</v>
       </c>
       <c r="G12">
-        <v>12.19995119539351</v>
+        <v>2.730945692543116</v>
       </c>
       <c r="H12">
-        <v>5.736200930869416</v>
+        <v>1.477756451588164</v>
       </c>
       <c r="I12">
-        <v>18.84469284874035</v>
+        <v>6.407322560668433</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.738392214596331</v>
+        <v>1.968361989861023</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3716779563503252</v>
+        <v>0.0742835337146488</v>
       </c>
       <c r="E13">
-        <v>3.763802681089203</v>
+        <v>0.7361221926845474</v>
       </c>
       <c r="F13">
-        <v>10.13086452675722</v>
+        <v>2.388273756458403</v>
       </c>
       <c r="G13">
-        <v>12.09537757619216</v>
+        <v>2.71670796254466</v>
       </c>
       <c r="H13">
-        <v>5.687065115623739</v>
+        <v>1.471400018306724</v>
       </c>
       <c r="I13">
-        <v>18.74309994099224</v>
+        <v>6.375069214559801</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.635802115248225</v>
+        <v>1.935859098657602</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3602685749412018</v>
+        <v>0.0729484585700817</v>
       </c>
       <c r="E14">
-        <v>3.644911226198758</v>
+        <v>0.7229261437163217</v>
       </c>
       <c r="F14">
-        <v>9.852607558786332</v>
+        <v>2.349891060477688</v>
       </c>
       <c r="G14">
-        <v>11.76094733936554</v>
+        <v>2.670315630292464</v>
       </c>
       <c r="H14">
-        <v>5.529954588443388</v>
+        <v>1.450697669861711</v>
       </c>
       <c r="I14">
-        <v>18.4121146634194</v>
+        <v>6.269857673436093</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.573050217150183</v>
+        <v>1.915939811074622</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3534821868334035</v>
+        <v>0.07213142522000737</v>
       </c>
       <c r="E15">
-        <v>3.574343968424941</v>
+        <v>0.7148524956228215</v>
       </c>
       <c r="F15">
-        <v>9.686051262822446</v>
+        <v>2.326410295331868</v>
       </c>
       <c r="G15">
-        <v>11.56083503363419</v>
+        <v>2.641929398215893</v>
       </c>
       <c r="H15">
-        <v>5.435965475903515</v>
+        <v>1.438037758433723</v>
       </c>
       <c r="I15">
-        <v>18.20962447570059</v>
+        <v>6.205392518134602</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.214691192307441</v>
+        <v>1.801633628445018</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3171644564791052</v>
+        <v>0.06746016902452823</v>
       </c>
       <c r="E16">
-        <v>3.198447313802191</v>
+        <v>0.6687232001523142</v>
       </c>
       <c r="F16">
-        <v>8.781623231144181</v>
+        <v>2.192296469740057</v>
       </c>
       <c r="G16">
-        <v>10.47501223004031</v>
+        <v>2.479712166869206</v>
       </c>
       <c r="H16">
-        <v>4.926269183172565</v>
+        <v>1.365802710240757</v>
       </c>
       <c r="I16">
-        <v>17.05276540083526</v>
+        <v>5.835670441680008</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.995863217550664</v>
+        <v>1.731372246121737</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2967338190699991</v>
+        <v>0.06460364233217319</v>
       </c>
       <c r="E17">
-        <v>2.988156594715903</v>
+        <v>0.6405414693056741</v>
       </c>
       <c r="F17">
-        <v>8.263294218223649</v>
+        <v>2.110407240501445</v>
       </c>
       <c r="G17">
-        <v>9.853293898477773</v>
+        <v>2.38058685249996</v>
       </c>
       <c r="H17">
-        <v>4.634675878376925</v>
+        <v>1.321762217021217</v>
       </c>
       <c r="I17">
-        <v>16.34593973321432</v>
+        <v>5.608601612490247</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.870334028617719</v>
+        <v>1.690909632146656</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2855233700842774</v>
+        <v>0.06296379515380579</v>
       </c>
       <c r="E18">
-        <v>2.873090059639537</v>
+        <v>0.6243729184997164</v>
       </c>
       <c r="F18">
-        <v>7.976016237963222</v>
+        <v>2.063443689084153</v>
       </c>
       <c r="G18">
-        <v>9.508873390782639</v>
+        <v>2.323710192705676</v>
       </c>
       <c r="H18">
-        <v>4.473224940678961</v>
+        <v>1.2965291561203</v>
       </c>
       <c r="I18">
-        <v>15.94034052935712</v>
+        <v>5.477907426105105</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.827886082284294</v>
+        <v>1.677201143000843</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2818100701235551</v>
+        <v>0.06240909297251562</v>
       </c>
       <c r="E19">
-        <v>2.83502347741215</v>
+        <v>0.6189053326469747</v>
       </c>
       <c r="F19">
-        <v>7.880415980618352</v>
+        <v>2.047565729167701</v>
       </c>
       <c r="G19">
-        <v>9.394281011980468</v>
+        <v>2.304475839262807</v>
       </c>
       <c r="H19">
-        <v>4.41952296081945</v>
+        <v>1.288002240429705</v>
       </c>
       <c r="I19">
-        <v>15.80316478742481</v>
+        <v>5.433641513037287</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.019122345914354</v>
+        <v>1.73885689351971</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2988500988087708</v>
+        <v>0.06490739369498044</v>
       </c>
       <c r="E20">
-        <v>3.009903403381969</v>
+        <v>0.6435371872360207</v>
       </c>
       <c r="F20">
-        <v>8.317299007354535</v>
+        <v>2.119110209985365</v>
       </c>
       <c r="G20">
-        <v>9.918053123684388</v>
+        <v>2.391124544869683</v>
       </c>
       <c r="H20">
-        <v>4.665039568894372</v>
+        <v>1.326440215915113</v>
       </c>
       <c r="I20">
-        <v>16.42108206781126</v>
+        <v>5.632782903627174</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.665916848072072</v>
+        <v>1.945408141630935</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3635761746694754</v>
+        <v>0.07334044737054057</v>
       </c>
       <c r="E21">
-        <v>3.679344923286408</v>
+        <v>0.726800189790751</v>
       </c>
       <c r="F21">
-        <v>9.933502499803353</v>
+        <v>2.361158763589458</v>
       </c>
       <c r="G21">
-        <v>11.85815821520242</v>
+        <v>2.683935813114317</v>
       </c>
       <c r="H21">
-        <v>5.575618452073968</v>
+        <v>1.45677408627796</v>
       </c>
       <c r="I21">
-        <v>18.50928075155713</v>
+        <v>6.30076505272973</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.09244724781405</v>
+        <v>2.079940855283951</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.414578378602755</v>
+        <v>0.07888443913425647</v>
       </c>
       <c r="E22">
-        <v>4.213978699760389</v>
+        <v>0.7816282444840539</v>
       </c>
       <c r="F22">
-        <v>11.15708772985096</v>
+        <v>2.520670277776958</v>
       </c>
       <c r="G22">
-        <v>13.33009481252668</v>
+        <v>2.876650817821144</v>
       </c>
       <c r="H22">
-        <v>6.267461421372843</v>
+        <v>1.542882076632281</v>
       </c>
       <c r="I22">
-        <v>19.88483939217662</v>
+        <v>6.736443306619606</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.864408231950222</v>
+        <v>2.00818100542449</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3862748291460463</v>
+        <v>0.07592231310724173</v>
       </c>
       <c r="E23">
-        <v>3.916396440104663</v>
+        <v>0.752325552932561</v>
       </c>
       <c r="F23">
-        <v>10.48361503380991</v>
+        <v>2.435410421870188</v>
       </c>
       <c r="G23">
-        <v>12.51955203874002</v>
+        <v>2.773666093207737</v>
       </c>
       <c r="H23">
-        <v>5.886395699561092</v>
+        <v>1.496837023020134</v>
       </c>
       <c r="I23">
-        <v>19.14956756317588</v>
+        <v>6.503998686294892</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.008606037163872</v>
+        <v>1.735473297350211</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2978916929191939</v>
+        <v>0.06477006025150445</v>
       </c>
       <c r="E24">
-        <v>3.000053865226164</v>
+        <v>0.6421827193271525</v>
       </c>
       <c r="F24">
-        <v>8.292850652779435</v>
+        <v>2.115175238321626</v>
       </c>
       <c r="G24">
-        <v>9.88873566483602</v>
+        <v>2.386360107228029</v>
       </c>
       <c r="H24">
-        <v>4.651293205077309</v>
+        <v>1.324325024093469</v>
       </c>
       <c r="I24">
-        <v>16.38710786282724</v>
+        <v>5.621851005971394</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.097905588846629</v>
+        <v>1.439406031741441</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2231678415244431</v>
+        <v>0.05285854641996934</v>
       </c>
       <c r="E25">
-        <v>2.236674442812131</v>
+        <v>0.524910646920091</v>
       </c>
       <c r="F25">
-        <v>6.342005216931426</v>
+        <v>1.774930254878313</v>
       </c>
       <c r="G25">
-        <v>7.551648860852879</v>
+        <v>1.973780395381823</v>
       </c>
       <c r="H25">
-        <v>3.55713584585601</v>
+        <v>1.14195305260256</v>
       </c>
       <c r="I25">
-        <v>13.44254217779269</v>
+        <v>4.666914883151094</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_156/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.219803940679071</v>
+        <v>3.434063171571722</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04416460176246062</v>
+        <v>0.176664084881196</v>
       </c>
       <c r="E2">
-        <v>0.4396191691992186</v>
+        <v>1.765433349908108</v>
       </c>
       <c r="F2">
-        <v>1.528290297222981</v>
+        <v>5.085088052737632</v>
       </c>
       <c r="G2">
-        <v>1.673767081463382</v>
+        <v>6.047613846318768</v>
       </c>
       <c r="H2">
-        <v>1.010542361786406</v>
+        <v>2.855195282128761</v>
       </c>
       <c r="I2">
-        <v>3.961193417866525</v>
+        <v>11.29355081581571</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.069997499266549</v>
+        <v>2.986638742122068</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03830832642090343</v>
+        <v>0.1481600608386344</v>
       </c>
       <c r="E3">
-        <v>0.3823479279035951</v>
+        <v>1.477819511624659</v>
       </c>
       <c r="F3">
-        <v>1.363286054659909</v>
+        <v>4.299387531526605</v>
       </c>
       <c r="G3">
-        <v>1.472460773835678</v>
+        <v>5.107744382705164</v>
       </c>
       <c r="H3">
-        <v>0.9231199012414208</v>
+        <v>2.417775887462483</v>
       </c>
       <c r="I3">
-        <v>3.481483530427994</v>
+        <v>9.844336852165611</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9775436500530645</v>
+        <v>2.7126419304401</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03472637085036467</v>
+        <v>0.1316666761485692</v>
       </c>
       <c r="E4">
-        <v>0.3474053453013823</v>
+        <v>1.31180191048341</v>
       </c>
       <c r="F4">
-        <v>1.262945067803372</v>
+        <v>3.839723242349976</v>
       </c>
       <c r="G4">
-        <v>1.349747030403535</v>
+        <v>4.557876019152076</v>
       </c>
       <c r="H4">
-        <v>0.8702008080870769</v>
+        <v>2.162425671209235</v>
       </c>
       <c r="I4">
-        <v>3.186307868167489</v>
+        <v>8.956724654652504</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9397517899388959</v>
+        <v>2.601103149140158</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03326964694228707</v>
+        <v>0.1251451355863793</v>
       </c>
       <c r="E5">
-        <v>0.333216280922386</v>
+        <v>1.246240096146479</v>
       </c>
       <c r="F5">
-        <v>1.222288067622259</v>
+        <v>3.656993775845166</v>
       </c>
       <c r="G5">
-        <v>1.299949458491369</v>
+        <v>4.339267670826189</v>
       </c>
       <c r="H5">
-        <v>0.8488200623750686</v>
+        <v>2.061043229931983</v>
       </c>
       <c r="I5">
-        <v>3.06587693359225</v>
+        <v>8.595401611000312</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9334695415141141</v>
+        <v>2.582587512584666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03302792226286044</v>
+        <v>0.124072942500618</v>
       </c>
       <c r="E6">
-        <v>0.3308630769826664</v>
+        <v>1.235465716026766</v>
       </c>
       <c r="F6">
-        <v>1.215550724464379</v>
+        <v>3.626899869878883</v>
       </c>
       <c r="G6">
-        <v>1.291692836908965</v>
+        <v>4.303263164096279</v>
       </c>
       <c r="H6">
-        <v>0.8452807431618226</v>
+        <v>2.044353751884955</v>
       </c>
       <c r="I6">
-        <v>3.04587117873993</v>
+        <v>8.535422914870196</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9770344427033137</v>
+        <v>2.711137286499593</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03470671369345268</v>
+        <v>0.1315779786118583</v>
       </c>
       <c r="E7">
-        <v>0.3472137901143384</v>
+        <v>1.310909909582634</v>
       </c>
       <c r="F7">
-        <v>1.262395826126067</v>
+        <v>3.837241647402067</v>
       </c>
       <c r="G7">
-        <v>1.349074614279345</v>
+        <v>4.554907267146802</v>
       </c>
       <c r="H7">
-        <v>0.8699117225502562</v>
+        <v>2.161048325781536</v>
       </c>
       <c r="I7">
-        <v>3.184684259837752</v>
+        <v>8.951850372969403</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.168250105382356</v>
+        <v>3.27960004704272</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04214216942487781</v>
+        <v>0.1665900476819075</v>
       </c>
       <c r="E8">
-        <v>0.4198225367166089</v>
+        <v>1.663681052406304</v>
       </c>
       <c r="F8">
-        <v>1.47118785694326</v>
+        <v>4.808690486004849</v>
       </c>
       <c r="G8">
-        <v>1.604163365212003</v>
+        <v>5.7169713710569</v>
       </c>
       <c r="H8">
-        <v>0.98023762357343</v>
+        <v>2.701189145393414</v>
       </c>
       <c r="I8">
-        <v>3.795928923952232</v>
+        <v>10.7932942780659</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.539389405565316</v>
+        <v>4.403388309025729</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05685744970638495</v>
+        <v>0.2466043174923129</v>
       </c>
       <c r="E9">
-        <v>0.5642327170640442</v>
+        <v>2.475205393489574</v>
       </c>
       <c r="F9">
-        <v>1.888902018709359</v>
+        <v>6.963220771646064</v>
       </c>
       <c r="G9">
-        <v>2.112127782647462</v>
+        <v>8.295420152117742</v>
       </c>
       <c r="H9">
-        <v>1.202918706961327</v>
+        <v>3.904959172676683</v>
       </c>
       <c r="I9">
-        <v>4.989014804984947</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.809644099351601</v>
+        <v>5.239709044502774</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06778656051733378</v>
+        <v>0.319578039405144</v>
       </c>
       <c r="E10">
-        <v>0.6719446234360191</v>
+        <v>3.22334282000827</v>
       </c>
       <c r="F10">
-        <v>2.201659492699889</v>
+        <v>8.842406559566143</v>
       </c>
       <c r="G10">
-        <v>2.491042104895939</v>
+        <v>10.54794552903923</v>
       </c>
       <c r="H10">
-        <v>1.370841485233257</v>
+        <v>4.960488211714562</v>
       </c>
       <c r="I10">
-        <v>5.861568061238756</v>
+        <v>17.1335551850915</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.932050532541837</v>
+        <v>5.623796921615678</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07279217337988086</v>
+        <v>0.3589593210582223</v>
       </c>
       <c r="E11">
-        <v>0.7213816670721798</v>
+        <v>3.63128859148739</v>
       </c>
       <c r="F11">
-        <v>2.345399064368451</v>
+        <v>9.820535537072118</v>
       </c>
       <c r="G11">
-        <v>2.664885521213535</v>
+        <v>11.7224099143383</v>
       </c>
       <c r="H11">
-        <v>1.44827547428082</v>
+        <v>5.511853027748998</v>
       </c>
       <c r="I11">
-        <v>6.25753114434076</v>
+        <v>18.37337786845427</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.978324344475823</v>
+        <v>5.769885678609455</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07469321267035411</v>
+        <v>0.3752633481810932</v>
       </c>
       <c r="E12">
-        <v>0.7401723167001393</v>
+        <v>3.801232012380922</v>
       </c>
       <c r="F12">
-        <v>2.400055170825851</v>
+        <v>10.21784837750957</v>
       </c>
       <c r="G12">
-        <v>2.730945692543116</v>
+        <v>12.19995119539345</v>
       </c>
       <c r="H12">
-        <v>1.477756451588164</v>
+        <v>5.736200930869416</v>
       </c>
       <c r="I12">
-        <v>6.407322560668433</v>
+        <v>18.84469284874035</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.968361989861023</v>
+        <v>5.738392214596843</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0742835337146488</v>
+        <v>0.3716779563501973</v>
       </c>
       <c r="E13">
-        <v>0.7361221926845474</v>
+        <v>3.76380268108926</v>
       </c>
       <c r="F13">
-        <v>2.388273756458403</v>
+        <v>10.13086452675719</v>
       </c>
       <c r="G13">
-        <v>2.71670796254466</v>
+        <v>12.09537757619205</v>
       </c>
       <c r="H13">
-        <v>1.471400018306724</v>
+        <v>5.687065115623682</v>
       </c>
       <c r="I13">
-        <v>6.375069214559801</v>
+        <v>18.74309994099235</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.935859098657602</v>
+        <v>5.635802115248566</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0729484585700817</v>
+        <v>0.3602685749414007</v>
       </c>
       <c r="E14">
-        <v>0.7229261437163217</v>
+        <v>3.644911226198786</v>
       </c>
       <c r="F14">
-        <v>2.349891060477688</v>
+        <v>9.852607558786332</v>
       </c>
       <c r="G14">
-        <v>2.670315630292464</v>
+        <v>11.76094733936554</v>
       </c>
       <c r="H14">
-        <v>1.450697669861711</v>
+        <v>5.529954588443388</v>
       </c>
       <c r="I14">
-        <v>6.269857673436093</v>
+        <v>18.4121146634194</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.915939811074622</v>
+        <v>5.573050217150808</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07213142522000737</v>
+        <v>0.3534821868334035</v>
       </c>
       <c r="E15">
-        <v>0.7148524956228215</v>
+        <v>3.574343968424884</v>
       </c>
       <c r="F15">
-        <v>2.326410295331868</v>
+        <v>9.686051262822417</v>
       </c>
       <c r="G15">
-        <v>2.641929398215893</v>
+        <v>11.56083503363408</v>
       </c>
       <c r="H15">
-        <v>1.438037758433723</v>
+        <v>5.435965475903458</v>
       </c>
       <c r="I15">
-        <v>6.205392518134602</v>
+        <v>18.20962447570054</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.801633628445018</v>
+        <v>5.214691192307157</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06746016902452823</v>
+        <v>0.3171644564787073</v>
       </c>
       <c r="E16">
-        <v>0.6687232001523142</v>
+        <v>3.198447313802191</v>
       </c>
       <c r="F16">
-        <v>2.192296469740057</v>
+        <v>8.781623231144209</v>
       </c>
       <c r="G16">
-        <v>2.479712166869206</v>
+        <v>10.47501223004042</v>
       </c>
       <c r="H16">
-        <v>1.365802710240757</v>
+        <v>4.926269183172565</v>
       </c>
       <c r="I16">
-        <v>5.835670441680008</v>
+        <v>17.05276540083537</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.731372246121737</v>
+        <v>4.995863217551118</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06460364233217319</v>
+        <v>0.2967338190699849</v>
       </c>
       <c r="E17">
-        <v>0.6405414693056741</v>
+        <v>2.988156594715889</v>
       </c>
       <c r="F17">
-        <v>2.110407240501445</v>
+        <v>8.263294218223649</v>
       </c>
       <c r="G17">
-        <v>2.38058685249996</v>
+        <v>9.853293898477773</v>
       </c>
       <c r="H17">
-        <v>1.321762217021217</v>
+        <v>4.634675878376981</v>
       </c>
       <c r="I17">
-        <v>5.608601612490247</v>
+        <v>16.34593973321427</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.690909632146656</v>
+        <v>4.870334028617037</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06296379515380579</v>
+        <v>0.2855233700839506</v>
       </c>
       <c r="E18">
-        <v>0.6243729184997164</v>
+        <v>2.873090059639523</v>
       </c>
       <c r="F18">
-        <v>2.063443689084153</v>
+        <v>7.976016237963165</v>
       </c>
       <c r="G18">
-        <v>2.323710192705676</v>
+        <v>9.50887339078281</v>
       </c>
       <c r="H18">
-        <v>1.2965291561203</v>
+        <v>4.473224940678961</v>
       </c>
       <c r="I18">
-        <v>5.477907426105105</v>
+        <v>15.94034052935729</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.677201143000843</v>
+        <v>4.827886082283612</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06240909297251562</v>
+        <v>0.2818100701237825</v>
       </c>
       <c r="E19">
-        <v>0.6189053326469747</v>
+        <v>2.835023477412136</v>
       </c>
       <c r="F19">
-        <v>2.047565729167701</v>
+        <v>7.880415980618352</v>
       </c>
       <c r="G19">
-        <v>2.304475839262807</v>
+        <v>9.394281011980297</v>
       </c>
       <c r="H19">
-        <v>1.288002240429705</v>
+        <v>4.419522960819506</v>
       </c>
       <c r="I19">
-        <v>5.433641513037287</v>
+        <v>15.80316478742492</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.73885689351971</v>
+        <v>5.019122345914866</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06490739369498044</v>
+        <v>0.2988500988089839</v>
       </c>
       <c r="E20">
-        <v>0.6435371872360207</v>
+        <v>3.009903403381898</v>
       </c>
       <c r="F20">
-        <v>2.119110209985365</v>
+        <v>8.317299007354507</v>
       </c>
       <c r="G20">
-        <v>2.391124544869683</v>
+        <v>9.918053123684388</v>
       </c>
       <c r="H20">
-        <v>1.326440215915113</v>
+        <v>4.665039568894372</v>
       </c>
       <c r="I20">
-        <v>5.632782903627174</v>
+        <v>16.42108206781114</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.945408141630935</v>
+        <v>5.665916848072982</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07334044737054057</v>
+        <v>0.3635761746698591</v>
       </c>
       <c r="E21">
-        <v>0.726800189790751</v>
+        <v>3.679344923286394</v>
       </c>
       <c r="F21">
-        <v>2.361158763589458</v>
+        <v>9.933502499803353</v>
       </c>
       <c r="G21">
-        <v>2.683935813114317</v>
+        <v>11.85815821520231</v>
       </c>
       <c r="H21">
-        <v>1.45677408627796</v>
+        <v>5.575618452073968</v>
       </c>
       <c r="I21">
-        <v>6.30076505272973</v>
+        <v>18.50928075155718</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.079940855283951</v>
+        <v>6.092447247814903</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07888443913425647</v>
+        <v>0.4145783786027266</v>
       </c>
       <c r="E22">
-        <v>0.7816282444840539</v>
+        <v>4.213978699760446</v>
       </c>
       <c r="F22">
-        <v>2.520670277776958</v>
+        <v>11.15708772985101</v>
       </c>
       <c r="G22">
-        <v>2.876650817821144</v>
+        <v>13.3300948125268</v>
       </c>
       <c r="H22">
-        <v>1.542882076632281</v>
+        <v>6.2674614213729</v>
       </c>
       <c r="I22">
-        <v>6.736443306619606</v>
+        <v>19.88483939217656</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.00818100542449</v>
+        <v>5.864408231949426</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07592231310724173</v>
+        <v>0.386274829146231</v>
       </c>
       <c r="E23">
-        <v>0.752325552932561</v>
+        <v>3.916396440104663</v>
       </c>
       <c r="F23">
-        <v>2.435410421870188</v>
+        <v>10.48361503380991</v>
       </c>
       <c r="G23">
-        <v>2.773666093207737</v>
+        <v>12.5195520387399</v>
       </c>
       <c r="H23">
-        <v>1.496837023020134</v>
+        <v>5.886395699561206</v>
       </c>
       <c r="I23">
-        <v>6.503998686294892</v>
+        <v>19.14956756317582</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.735473297350211</v>
+        <v>5.008606037163474</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06477006025150445</v>
+        <v>0.2978916929193929</v>
       </c>
       <c r="E24">
-        <v>0.6421827193271525</v>
+        <v>3.000053865226121</v>
       </c>
       <c r="F24">
-        <v>2.115175238321626</v>
+        <v>8.292850652779379</v>
       </c>
       <c r="G24">
-        <v>2.386360107228029</v>
+        <v>9.88873566483602</v>
       </c>
       <c r="H24">
-        <v>1.324325024093469</v>
+        <v>4.651293205077195</v>
       </c>
       <c r="I24">
-        <v>5.621851005971394</v>
+        <v>16.38710786282718</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.439406031741441</v>
+        <v>4.097905588847425</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05285854641996934</v>
+        <v>0.2231678415244431</v>
       </c>
       <c r="E25">
-        <v>0.524910646920091</v>
+        <v>2.236674442812131</v>
       </c>
       <c r="F25">
-        <v>1.774930254878313</v>
+        <v>6.342005216931454</v>
       </c>
       <c r="G25">
-        <v>1.973780395381823</v>
+        <v>7.551648860852879</v>
       </c>
       <c r="H25">
-        <v>1.14195305260256</v>
+        <v>3.55713584585601</v>
       </c>
       <c r="I25">
-        <v>4.666914883151094</v>
+        <v>13.44254217779275</v>
       </c>
       <c r="J25">
         <v>0</v>
